--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem4/17/word_level_error_type_summary_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem4/17/word_level_error_type_summary_17.xlsx
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>error_type</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>count</t>
@@ -447,23 +452,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -487,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem4/17/word_level_error_type_summary_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem4/17/word_level_error_type_summary_17.xlsx
@@ -434,11 +434,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>error_type</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>count</t>
@@ -452,23 +447,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
